--- a/customers.xlsx
+++ b/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman Somani\Desktop\schoolmg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A730C-44CE-4ED0-AE14-E6F48F6256A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78670EAA-02F3-46BD-85DB-3507405ABCB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Massachusetts</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>bhilwara</t>
+  </si>
+  <si>
+    <t>Johnn</t>
+  </si>
+  <si>
+    <t>Doee</t>
+  </si>
+  <si>
+    <t>doe@abc.in</t>
+  </si>
+  <si>
+    <t>Goa</t>
   </si>
 </sst>
 </file>
@@ -510,15 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,6 +739,32 @@
       </c>
       <c r="H8" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>8824642220</v>
+      </c>
+      <c r="D9" s="2">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -738,6 +776,7 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{AFC879BC-6AC2-4CDC-A9A2-9906F987F10B}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{F83A70E8-CC2C-45F5-8DCC-93482AEE084E}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{FCAF8C71-3E4B-467B-8711-0E4E370D363D}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{7759A641-6E1C-4D90-8AF7-14852A098DE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
